--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\automationExercise\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E26D3F4-718D-4DDF-A9C7-44E2592CD85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B2C89C-F65A-41C1-8CAE-92515E528755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5670" yWindow="3015" windowWidth="10170" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataSheet" sheetId="1" r:id="rId1"/>
@@ -39,14 +39,14 @@
     <t>testAdmin</t>
   </si>
   <si>
-    <t>admintester@gmail.com</t>
+    <t>admintester123@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,14 @@
       <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,16 +86,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -391,11 +404,14 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6C41FD2A-65BD-4F8C-9031-44790CF31D79}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\automationExercise\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B2C89C-F65A-41C1-8CAE-92515E528755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16547D0A-0EF0-4743-BD9A-FCE639B4A6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="3015" windowWidth="10170" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="ContactTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -40,6 +41,24 @@
   </si>
   <si>
     <t>admintester123@gmail.com</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>my name here</t>
+  </si>
+  <si>
+    <t>admin582@gmail.com</t>
+  </si>
+  <si>
+    <t>subject of message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your messge here </t>
   </si>
 </sst>
 </file>
@@ -90,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -98,6 +117,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -381,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -414,4 +434,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266871C-32BC-4777-8F96-7206618C5E50}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FF088FA6-3314-403D-A405-0818593C2DEB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>